--- a/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-19/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>108350</v>
+        <v>108353</v>
       </c>
       <c r="D20" t="n">
-        <v>24271</v>
+        <v>24272</v>
       </c>
       <c r="E20" t="n">
-        <v>225640098</v>
+        <v>225644598</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1353,13 +1353,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12428</v>
+        <v>12431</v>
       </c>
       <c r="D23" t="n">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="E23" t="n">
-        <v>26546667</v>
+        <v>26551383</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>98505</v>
+        <v>98506</v>
       </c>
       <c r="D97" t="n">
         <v>22696</v>
       </c>
       <c r="E97" t="n">
-        <v>307060090</v>
+        <v>307112902</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50568</v>
+        <v>50570</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168403425</v>
+        <v>168509301</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284945</v>
+        <v>284949</v>
       </c>
       <c r="D168" t="n">
         <v>58122</v>
       </c>
       <c r="E168" t="n">
-        <v>1208812356</v>
+        <v>1208950823</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562570</v>
+        <v>562571</v>
       </c>
       <c r="D169" t="n">
         <v>60954</v>
       </c>
       <c r="E169" t="n">
-        <v>1284347017</v>
+        <v>1284349419</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367295</v>
+        <v>367306</v>
       </c>
       <c r="D170" t="n">
         <v>38109</v>
       </c>
       <c r="E170" t="n">
-        <v>2844296974</v>
+        <v>2844387745</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115114</v>
+        <v>115122</v>
       </c>
       <c r="D171" t="n">
         <v>20263</v>
       </c>
       <c r="E171" t="n">
-        <v>444843822</v>
+        <v>445187670</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54384</v>
+        <v>54385</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151848977</v>
+        <v>151851439</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357172</v>
+        <v>357180</v>
       </c>
       <c r="D174" t="n">
         <v>69788</v>
       </c>
       <c r="E174" t="n">
-        <v>1016734496</v>
+        <v>1016827280</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125514</v>
+        <v>125519</v>
       </c>
       <c r="D175" t="n">
-        <v>18099</v>
+        <v>18100</v>
       </c>
       <c r="E175" t="n">
-        <v>811815500</v>
+        <v>812155990</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96747</v>
+        <v>96749</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174708298</v>
+        <v>174720542</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235661</v>
+        <v>235668</v>
       </c>
       <c r="D179" t="n">
         <v>29335</v>
       </c>
       <c r="E179" t="n">
-        <v>812291189</v>
+        <v>812410531</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141458</v>
+        <v>141464</v>
       </c>
       <c r="D180" t="n">
         <v>28890</v>
       </c>
       <c r="E180" t="n">
-        <v>340129057</v>
+        <v>340163580</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8323,13 +8323,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5343</v>
+        <v>5346</v>
       </c>
       <c r="D193" t="n">
         <v>1046</v>
       </c>
       <c r="E193" t="n">
-        <v>27693629</v>
+        <v>27703233</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6418</v>
+        <v>6419</v>
       </c>
       <c r="D210" t="n">
         <v>979</v>
       </c>
       <c r="E210" t="n">
-        <v>18550633</v>
+        <v>18553407</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>11192315</v>
+        <v>11266871</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -11316,13 +11316,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>71662</v>
+        <v>71664</v>
       </c>
       <c r="D266" t="n">
         <v>9133</v>
       </c>
       <c r="E266" t="n">
-        <v>219427243</v>
+        <v>219431842</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>81161</v>
+        <v>81162</v>
       </c>
       <c r="D322" t="n">
         <v>9703</v>
       </c>
       <c r="E322" t="n">
-        <v>254527631</v>
+        <v>254537631</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
